--- a/Docs/Menu功能表.xlsx
+++ b/Docs/Menu功能表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\iHub\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C6685-FB00-4524-B211-FDA09B985A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0966DC6-978F-47F6-8B41-2AAE3E3CD9AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="193">
   <si>
     <t>一、MenuPath</t>
   </si>
@@ -750,6 +750,34 @@
   </si>
   <si>
     <t>外包機構核備系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingPathController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會內最新公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站設定(SettingPath)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingPOSTController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id = "SettingPath", Name = "網站設定", Index = 11, IsOnlyPath = true, Icon = "Images/book-solid.svg")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dou.Misc.Attr.MenuDef(Id="SettingPOST", Name = "會內最新公告", MenuPath = "網站設定", Action = "Index", Index = 1, Func = Dou.Misc.Attr.FuncEnum.Update, AllowAnonymous = false)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="C67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1313,636 +1341,673 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>178</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="4"/>
-    </row>
-    <row r="51" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="52" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>148</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C60" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>185</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>184</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C66" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>69</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C74" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
